--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.914517</v>
+        <v>5.385511999999999</v>
       </c>
       <c r="H2">
-        <v>293.743551</v>
+        <v>16.156536</v>
       </c>
       <c r="I2">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514656</v>
       </c>
       <c r="J2">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514657</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.346233</v>
+        <v>0.000484</v>
       </c>
       <c r="N2">
-        <v>7.038699</v>
+        <v>0.001452</v>
       </c>
       <c r="O2">
-        <v>0.9997937544237332</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9997937544237333</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>229.730270964461</v>
+        <v>0.002606587808</v>
       </c>
       <c r="R2">
-        <v>2067.572438680149</v>
+        <v>0.023459290272</v>
       </c>
       <c r="S2">
-        <v>0.3383353507815394</v>
+        <v>0.02736372477514656</v>
       </c>
       <c r="T2">
-        <v>0.3383353507815394</v>
+        <v>0.02736372477514657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.914517</v>
+        <v>153.7577133333333</v>
       </c>
       <c r="H3">
-        <v>293.743551</v>
+        <v>461.27314</v>
       </c>
       <c r="I3">
-        <v>0.3384051453457528</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="J3">
-        <v>0.3384051453457528</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.001452</v>
       </c>
       <c r="O3">
-        <v>0.000206245576266759</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.0002062455762667591</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.047390626228</v>
+        <v>0.07441873325333333</v>
       </c>
       <c r="R3">
-        <v>0.426515636052</v>
+        <v>0.66976859928</v>
       </c>
       <c r="S3">
-        <v>6.979456421347114E-05</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="T3">
-        <v>6.979456421347115E-05</v>
+        <v>0.7812411799860843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>153.7577133333333</v>
+        <v>37.66886966666667</v>
       </c>
       <c r="H4">
-        <v>461.27314</v>
+        <v>113.006609</v>
       </c>
       <c r="I4">
-        <v>0.5314064034917035</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="J4">
-        <v>0.5314064034917034</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.346233</v>
+        <v>0.000484</v>
       </c>
       <c r="N4">
-        <v>7.038699</v>
+        <v>0.001452</v>
       </c>
       <c r="O4">
-        <v>0.9997937544237332</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9997937544237333</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>360.7514210272067</v>
+        <v>0.01823173291866667</v>
       </c>
       <c r="R4">
-        <v>3246.76278924486</v>
+        <v>0.164085596268</v>
       </c>
       <c r="S4">
-        <v>0.5312968032717835</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="T4">
-        <v>0.5312968032717835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>153.7577133333333</v>
-      </c>
-      <c r="H5">
-        <v>461.27314</v>
-      </c>
-      <c r="I5">
-        <v>0.5314064034917035</v>
-      </c>
-      <c r="J5">
-        <v>0.5314064034917034</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.000484</v>
-      </c>
-      <c r="N5">
-        <v>0.001452</v>
-      </c>
-      <c r="O5">
-        <v>0.000206245576266759</v>
-      </c>
-      <c r="P5">
-        <v>0.0002062455762667591</v>
-      </c>
-      <c r="Q5">
-        <v>0.07441873325333333</v>
-      </c>
-      <c r="R5">
-        <v>0.66976859928</v>
-      </c>
-      <c r="S5">
-        <v>0.0001096002199199923</v>
-      </c>
-      <c r="T5">
-        <v>0.0001096002199199923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>37.66886966666667</v>
-      </c>
-      <c r="H6">
-        <v>113.006609</v>
-      </c>
-      <c r="I6">
-        <v>0.1301884511625437</v>
-      </c>
-      <c r="J6">
-        <v>0.1301884511625437</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>2.346233</v>
-      </c>
-      <c r="N6">
-        <v>7.038699</v>
-      </c>
-      <c r="O6">
-        <v>0.9997937544237332</v>
-      </c>
-      <c r="P6">
-        <v>0.9997937544237333</v>
-      </c>
-      <c r="Q6">
-        <v>88.37994508463234</v>
-      </c>
-      <c r="R6">
-        <v>795.419505761691</v>
-      </c>
-      <c r="S6">
-        <v>0.1301616003704104</v>
-      </c>
-      <c r="T6">
-        <v>0.1301616003704104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>37.66886966666667</v>
-      </c>
-      <c r="H7">
-        <v>113.006609</v>
-      </c>
-      <c r="I7">
-        <v>0.1301884511625437</v>
-      </c>
-      <c r="J7">
-        <v>0.1301884511625437</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.000484</v>
-      </c>
-      <c r="N7">
-        <v>0.001452</v>
-      </c>
-      <c r="O7">
-        <v>0.000206245576266759</v>
-      </c>
-      <c r="P7">
-        <v>0.0002062455762667591</v>
-      </c>
-      <c r="Q7">
-        <v>0.01823173291866667</v>
-      </c>
-      <c r="R7">
-        <v>0.164085596268</v>
-      </c>
-      <c r="S7">
-        <v>2.685079213329564E-05</v>
-      </c>
-      <c r="T7">
-        <v>2.685079213329564E-05</v>
+        <v>0.1913950952387691</v>
       </c>
     </row>
   </sheetData>
